--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work-place_LP\Carrix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tech-radar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B58D510C-5FC1-4116-B14F-BBD9B697D66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{604089F4-2FDD-498F-BC17-D2A84C2BFA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A5F3ECDC-6931-4BC8-A74A-2598F25CBA5A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{878C325F-8BAE-4501-8AF4-7F327B72DA90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,112 +20,95 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
-  <si>
-    <t>894-3310</t>
-  </si>
-  <si>
-    <t>ProSupport Plus Mission Critical 7x24 Technical Support and Assistance 5 Years</t>
-  </si>
-  <si>
-    <t>894-3328</t>
-  </si>
-  <si>
-    <t>ProSupport Plus Mission Critical 4-Hour 7x24 Onsite Service with Emergency Dispatch 3 Years</t>
-  </si>
-  <si>
-    <t>894-3332</t>
-  </si>
-  <si>
-    <t>ProSupport Plus Mission Critical 4-Hour 7x24 Onsite Service with Emergency Dispatch 2 Years Extended</t>
-  </si>
-  <si>
-    <t>894-3498</t>
-  </si>
-  <si>
-    <t>Dell Hardware Limited Warranty Plus Onsite Service</t>
-  </si>
-  <si>
-    <t>963-5582</t>
-  </si>
-  <si>
-    <t>Dell Hardware Limited Warranty Plus On Site Service Extended Year</t>
-  </si>
-  <si>
-    <t>971-7037</t>
-  </si>
-  <si>
-    <t>Thank you for choosing Dell ProSupport Plus. For tech support, visit //www.dell.com/contactdell</t>
-  </si>
-  <si>
-    <t>828-9834</t>
-  </si>
-  <si>
-    <t>ProSupport Plus Mission Critical 7x24 HW-SW Tech Support and Assistance, 5 Years-LA</t>
-  </si>
-  <si>
-    <t>828-9854</t>
-  </si>
-  <si>
-    <t>ProSupport Plus Mission Critical 4-Hour 7x24 Onsite Service with Emergency Dispatch, 5 Years-LA</t>
-  </si>
-  <si>
-    <t>828-9986</t>
-  </si>
-  <si>
-    <t>Lifetime Limited Hardware Warranty with Basic Hardware Service Next Business Day Parts Only-LA</t>
-  </si>
-  <si>
-    <t>828-9988</t>
-  </si>
-  <si>
-    <t>Dell Hardware Limited Warranty Initial Year-LA</t>
-  </si>
-  <si>
-    <t>818-8279</t>
-  </si>
-  <si>
-    <t>Dell Hardware Limited Warranty Initial Year</t>
-  </si>
-  <si>
-    <t>818-8351</t>
-  </si>
-  <si>
-    <t>ProSupport Plus for Mission Critical: 7x24 Technical Support, 5 Years</t>
-  </si>
-  <si>
-    <t>818-8390</t>
-  </si>
-  <si>
-    <t>ProSupport Plus: Mission Critical 4-Hour 7X24 On-Site Service with Emergency Dispatch, 4 Years Extended</t>
-  </si>
-  <si>
-    <t>818-8398</t>
-  </si>
-  <si>
-    <t>ProSupport Plus: Mission Critical 4-Hour 7X24 On-Site Service with Emergency Dispatch, Initial Year</t>
-  </si>
-  <si>
-    <t>975-3461</t>
-  </si>
-  <si>
-    <t>Dell Limited Hardware Warranty Extended Year(s)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>RHEL 5 Server</t>
+  </si>
+  <si>
+    <t>Physical servers still dominant (≈80–85% Physical), Improved hardware support vs RHEL4, Xen virtualization available but limited enterprise adoption, Kickstart more stable but not fully standardized, Manual provisioning &amp; decommissioning, RHN Classic–based patching, Partial YUM automation, No patch orchestration, No live patching, No native config management, Heavy shell scripting, Manual application patching, Basic monitoring tools, Reactive operations model, Kernel 2.6.x improvements but stability issues under scale, Storage multipathing improved but operationally complex, Manual firmware/driver upgrades, Limited clustering scalability, No containers, No cloud-native readiness, High DC dependency, Manual RCA &amp; reporting, Coordination overhead remains high, Patch delays common, Human error moderate-to-high, Maintenance outages frequent</t>
+  </si>
+  <si>
+    <t>1 : 50–100</t>
+  </si>
+  <si>
+    <t>2007 – 2014 (ELS till ~2020)</t>
+  </si>
+  <si>
+    <t>RHEL 6 Server Family</t>
+  </si>
+  <si>
+    <t>2010 – 2017 (ELS till ~2024)</t>
+  </si>
+  <si>
+    <t>Virtualization adoption increases (≈60–70% Virtual), KVM becomes primary hypervisor, Better performance &amp; scalability, Improved Kickstart &amp; PXE automation, YUM-based patching stabilized, Puppet/Chef introduced but not default, No native automation framework, Manual change management, Limited patch orchestration, No live kernel patching initially, Better storage &amp; multipathing, Improved clustering, Monitoring still tool-driven (Nagios/Zabbix), Partial proactive monitoring, Manual RCA &amp; capacity planning, Reduced hardware dependency, Still DC-centric, Early cloud experiments, Human error reduced but present, Maintenance windows required, Outages shorter than RHEL5</t>
+  </si>
+  <si>
+    <t>1 : 100–200</t>
+  </si>
+  <si>
+    <t>RHEL 7 Server Family</t>
+  </si>
+  <si>
+    <t>2014 – 2024 (ELS till ~2028)</t>
+  </si>
+  <si>
+    <t>Systemd introduced, High VM density (≈80–90% Virtual), Strong KVM maturity, Ansible officially supported, Satellite 6 introduced (lifecycle mgmt), Patch orchestration &amp; compliance reporting, Kickstart + Ansible automation standard, Docker containers introduced, Improved SELinux usability, Live kernel patching (kpatch) available, Advanced monitoring &amp; alerting, Proactive ops model, Reduced MTTR, Better performance analytics, Hybrid cloud readiness, Reduced DC dependency, Lower human error, Faster change cycles, Shorter maintenance windows, Improved clustering &amp; HA</t>
+  </si>
+  <si>
+    <t>1 : 300–500</t>
+  </si>
+  <si>
+    <t>RHEL 8 Server Family</t>
+  </si>
+  <si>
+    <t>2019 – 2029</t>
+  </si>
+  <si>
+    <t>AppStreams decouple OS &amp; apps, High automation maturity, Ansible fully integrated, Satellite-driven lifecycle mgmt, Image-based provisioning, Widespread live patching, Containers &amp; Kubernetes (OpenShift) mainstream, Podman replaces Docker, Proactive monitoring &amp; auto-remediation, Advanced security (crypto policies), Cloud &amp; hybrid-first design, Immutable infra patterns emerge, Minimal physical dependency, Faster RCA via observability tools, Very low human error, Near-zero downtime patching, Elastic scaling</t>
+  </si>
+  <si>
+    <t>1 : 700–1,000+</t>
+  </si>
+  <si>
+    <t>RHEL 9 Server Family</t>
+  </si>
+  <si>
+    <t>2022 – 2032+</t>
+  </si>
+  <si>
+    <t>Cloud-native &amp; automation-first OS, Ansible Automation Platform core to ops, Image Mode (immutable OS), Zero-touch provisioning, Predictive monitoring, Security-by-default, Continuous compliance, Full CI/CD OS lifecycle, Extensive live patching, Kubernetes-native workloads, Edge &amp; AI workload readiness, Minimal manual intervention, Fully proactive ops, Ultra-low MTTR, Near-elimination of DC dependency, Self-healing infrastructure, Change velocity very high</t>
+  </si>
+  <si>
+    <t>1 : 1,500–3,000</t>
+  </si>
+  <si>
+    <t>RHEL 4 Server Family</t>
+  </si>
+  <si>
+    <t>2005 – 2011 (EUS till ~2015)</t>
+  </si>
+  <si>
+    <t>Physical servers ratio is very high (≈90–95% Physical, 5–10% Virtual), Limited enterprise virtualization support (early Xen, not widely adopted), Manual OS installation (Kickstart used but not standardized), Manual server provisioning &amp; decommissioning, Manual OS patching using early YUM/RHN, No centralized patch orchestration, No live patching, No configuration management tools (no Ansible/Puppet in standard use), Heavy reliance on shell scripts &amp; cron jobs, Manual application patching, Limited monitoring tools (Nagios custom builds, scripts), Reactive monitoring model, Frequent kernel panics under load, Legacy kernel (2.6.x), Driver compatibility issues with newer hardware, Frequent storage &amp; HBA driver issues, Limited multipathing maturity, Manual firmware &amp; BIOS upgrades, Poor hardware abstraction, Limited clustering support (RHCS immature), No container support, No cloud readiness, Heavy DC dependency &amp; physical access, High MTTR due to manual troubleshooting, Limited performance &amp; capacity analytics, Manual RCA generation, Coordination overhead between OS/Storage/Network teams, Higher human error rate, Patch cycles slow &amp; risky, Longer outages during maintenance, Legacy application dependencies restrict upgrades</t>
+  </si>
+  <si>
+    <t>1 : 30–70</t>
+  </si>
+  <si>
+    <t>RHEL 10 Server Family</t>
+  </si>
+  <si>
+    <t>2025 – ~2035+ (Projected)</t>
+  </si>
+  <si>
+    <t>Automation-first &amp; AI-assisted OS operations, Image-based &amp; immutable OS as default, Policy-driven lifecycle management, Full GitOps-based OS configuration &amp; patching, Zero-touch provisioning at scale, Autonomous patch orchestration with risk-aware scheduling, Near-zero downtime kernel &amp; user-space live patching, Deep integration with Ansible Automation Platform &amp; Event-Driven Ansible, Predictive monitoring &amp; self-healing remediation, Built-in compliance &amp; continuous security posture management, Kubernetes &amp; OpenShift-native by design, Edge-to-core unified management, Cloud-agnostic &amp; multi-cloud optimized, Hardware abstraction fully mature, Minimal physical server footprint, Almost no manual intervention, Ultra-low MTTR, Change execution measured in minutes not days, Human error close to zero, Ops teams focus on platforms &amp; policy instead of servers</t>
+  </si>
+  <si>
+    <t>1 : 3,000–5,000+</t>
   </si>
 </sst>
 </file>
@@ -136,7 +119,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -194,39 +177,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -278,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -389,6 +372,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -397,13 +387,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -468,184 +451,127 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A534FD-D746-4F9C-990C-2C22DCF69F9C}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE0117D-5AAE-423D-888F-5892828B9948}">
+  <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection sqref="A1:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="2" width="78.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="144.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="261" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="6" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="7" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="8" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D8" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
